--- a/predicted_factors_matrix_5.xlsx
+++ b/predicted_factors_matrix_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,30 +437,48 @@
       <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>-5.390651042491323</v>
       </c>
+      <c r="B2" t="n">
+        <v>-5.061858419956746</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>-1.233743651028871</v>
       </c>
+      <c r="B3" t="n">
+        <v>-1.207510618636294</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>-0.3062481831768569</v>
       </c>
+      <c r="B4" t="n">
+        <v>-0.1695053616500625</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>-1.221787513692672</v>
       </c>
+      <c r="B5" t="n">
+        <v>-0.796723028256265</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>-0.1100407980656386</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.1242486517753355</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_5.xlsx
+++ b/predicted_factors_matrix_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,6 +440,9 @@
       <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -448,6 +451,9 @@
       <c r="B2" t="n">
         <v>-5.061858419956746</v>
       </c>
+      <c r="C2" t="n">
+        <v>-4.697124697347145</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -456,6 +462,9 @@
       <c r="B3" t="n">
         <v>-1.207510618636294</v>
       </c>
+      <c r="C3" t="n">
+        <v>-1.172924015787017</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -464,6 +473,9 @@
       <c r="B4" t="n">
         <v>-0.1695053616500625</v>
       </c>
+      <c r="C4" t="n">
+        <v>-0.07027665786814449</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -472,6 +484,9 @@
       <c r="B5" t="n">
         <v>-0.796723028256265</v>
       </c>
+      <c r="C5" t="n">
+        <v>-0.4595607842740025</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -479,6 +494,9 @@
       </c>
       <c r="B6" t="n">
         <v>-0.1242486517753355</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.1300780636132118</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_5.xlsx
+++ b/predicted_factors_matrix_5.xlsx
@@ -452,7 +452,7 @@
         <v>-5.061858419956746</v>
       </c>
       <c r="C2" t="n">
-        <v>-4.697124697347145</v>
+        <v>-4.687379391667112</v>
       </c>
     </row>
     <row r="3">
@@ -463,7 +463,7 @@
         <v>-1.207510618636294</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.172924015787017</v>
+        <v>-1.167863727494661</v>
       </c>
     </row>
     <row r="4">
@@ -474,7 +474,7 @@
         <v>-0.1695053616500625</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.07027665786814449</v>
+        <v>-0.05450388432621493</v>
       </c>
     </row>
     <row r="5">
@@ -485,7 +485,7 @@
         <v>-0.796723028256265</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.4595607842740025</v>
+        <v>-0.4515867463689839</v>
       </c>
     </row>
     <row r="6">
@@ -496,7 +496,7 @@
         <v>-0.1242486517753355</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.1300780636132118</v>
+        <v>-0.1284184568582085</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_5.xlsx
+++ b/predicted_factors_matrix_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,6 +443,12 @@
       <c r="C1" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -452,7 +458,13 @@
         <v>-5.061858419956746</v>
       </c>
       <c r="C2" t="n">
-        <v>-4.687379391667112</v>
+        <v>-4.697124697347145</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-4.334917804198449</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-3.972531378745367</v>
       </c>
     </row>
     <row r="3">
@@ -463,7 +475,13 @@
         <v>-1.207510618636294</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.167863727494661</v>
+        <v>-1.172924015787017</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-1.133843532881532</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-1.081707472675687</v>
       </c>
     </row>
     <row r="4">
@@ -474,7 +492,13 @@
         <v>-0.1695053616500625</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.05450388432621493</v>
+        <v>-0.07027665786814449</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.00361369713132461</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0592240151895012</v>
       </c>
     </row>
     <row r="5">
@@ -485,7 +509,13 @@
         <v>-0.796723028256265</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.4515867463689839</v>
+        <v>-0.4595607842740025</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0.2015390863418249</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.166751880576564e-05</v>
       </c>
     </row>
     <row r="6">
@@ -496,7 +526,13 @@
         <v>-0.1242486517753355</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.1284184568582085</v>
+        <v>-0.1300780636132118</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-0.1323400936722163</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-0.131291933233199</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_5.xlsx
+++ b/predicted_factors_matrix_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,9 @@
       <c r="E1" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -466,6 +469,9 @@
       <c r="E2" t="n">
         <v>-3.972531378745367</v>
       </c>
+      <c r="F2" t="n">
+        <v>-3.617520459518891</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -483,6 +489,9 @@
       <c r="E3" t="n">
         <v>-1.081707472675687</v>
       </c>
+      <c r="F3" t="n">
+        <v>-1.020733447921392</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -500,6 +509,9 @@
       <c r="E4" t="n">
         <v>0.0592240151895012</v>
       </c>
+      <c r="F4" t="n">
+        <v>0.09915481849190791</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -517,6 +529,9 @@
       <c r="E5" t="n">
         <v>1.166751880576564e-05</v>
       </c>
+      <c r="F5" t="n">
+        <v>0.1542410907493577</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -533,6 +548,9 @@
       </c>
       <c r="E6" t="n">
         <v>-0.131291933233199</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.1278174898024038</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_5.xlsx
+++ b/predicted_factors_matrix_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,6 +452,9 @@
       <c r="F1" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -472,6 +475,9 @@
       <c r="F2" t="n">
         <v>-3.617520459518891</v>
       </c>
+      <c r="G2" t="n">
+        <v>-3.275574956176265</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -492,6 +498,9 @@
       <c r="F3" t="n">
         <v>-1.020733447921392</v>
       </c>
+      <c r="G3" t="n">
+        <v>-0.9543343153557645</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -512,6 +521,9 @@
       <c r="F4" t="n">
         <v>0.09915481849190791</v>
       </c>
+      <c r="G4" t="n">
+        <v>0.1257188428788459</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -532,6 +544,9 @@
       <c r="F5" t="n">
         <v>0.1542410907493577</v>
       </c>
+      <c r="G5" t="n">
+        <v>0.2691753503811303</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -551,6 +566,9 @@
       </c>
       <c r="F6" t="n">
         <v>-0.1278174898024038</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-0.1225941330159488</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_5.xlsx
+++ b/predicted_factors_matrix_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,6 +455,9 @@
       <c r="G1" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -478,6 +481,9 @@
       <c r="G2" t="n">
         <v>-3.275574956176265</v>
       </c>
+      <c r="H2" t="n">
+        <v>-2.950805042066807</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -501,6 +507,9 @@
       <c r="G3" t="n">
         <v>-0.9543343153557645</v>
       </c>
+      <c r="H3" t="n">
+        <v>-0.8852556963529972</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -524,6 +533,9 @@
       <c r="G4" t="n">
         <v>0.1257188428788459</v>
       </c>
+      <c r="H4" t="n">
+        <v>0.1409834411751575</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -547,6 +559,9 @@
       <c r="G5" t="n">
         <v>0.2691753503811303</v>
       </c>
+      <c r="H5" t="n">
+        <v>0.3517988815800743</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -569,6 +584,9 @@
       </c>
       <c r="G6" t="n">
         <v>-0.1225941330159488</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-0.116164460669712</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_5.xlsx
+++ b/predicted_factors_matrix_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,6 +458,9 @@
       <c r="H1" s="1" t="n">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -484,6 +487,9 @@
       <c r="H2" t="n">
         <v>-2.950805042066807</v>
       </c>
+      <c r="I2" t="n">
+        <v>-2.646005142860583</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -510,6 +516,9 @@
       <c r="H3" t="n">
         <v>-0.8852556963529972</v>
       </c>
+      <c r="I3" t="n">
+        <v>-0.8156721321708366</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -536,6 +545,9 @@
       <c r="H4" t="n">
         <v>0.1409834411751575</v>
       </c>
+      <c r="I4" t="n">
+        <v>0.1467938280124217</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -562,6 +574,9 @@
       <c r="H5" t="n">
         <v>0.3517988815800743</v>
       </c>
+      <c r="I5" t="n">
+        <v>0.4081430987682833</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -587,6 +602,9 @@
       </c>
       <c r="H6" t="n">
         <v>-0.116164460669712</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-0.1089651121347336</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_5.xlsx
+++ b/predicted_factors_matrix_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,6 +461,9 @@
       <c r="I1" s="1" t="n">
         <v>8</v>
       </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -490,6 +493,9 @@
       <c r="I2" t="n">
         <v>-2.646005142860583</v>
       </c>
+      <c r="J2" t="n">
+        <v>-2.362892266104446</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -519,6 +525,9 @@
       <c r="I3" t="n">
         <v>-0.8156721321708366</v>
       </c>
+      <c r="J3" t="n">
+        <v>-0.7472670760459825</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -548,6 +557,9 @@
       <c r="I4" t="n">
         <v>0.1467938280124217</v>
       </c>
+      <c r="J4" t="n">
+        <v>0.1447881659535433</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -577,6 +589,9 @@
       <c r="I5" t="n">
         <v>0.4081430987682833</v>
       </c>
+      <c r="J5" t="n">
+        <v>0.4433761691805321</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -605,6 +620,9 @@
       </c>
       <c r="I6" t="n">
         <v>-0.1089651121347336</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-0.1013444195333953</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_5.xlsx
+++ b/predicted_factors_matrix_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,9 @@
       <c r="J1" s="1" t="n">
         <v>9</v>
       </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -496,6 +499,9 @@
       <c r="J2" t="n">
         <v>-2.362892266104446</v>
       </c>
+      <c r="K2" t="n">
+        <v>-2.102317016039211</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -528,6 +534,9 @@
       <c r="J3" t="n">
         <v>-0.7472670760459825</v>
       </c>
+      <c r="K3" t="n">
+        <v>-0.6813052390739924</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -560,6 +569,9 @@
       <c r="J4" t="n">
         <v>0.1447881659535433</v>
       </c>
+      <c r="K4" t="n">
+        <v>0.1364101945376108</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -592,6 +604,9 @@
       <c r="J5" t="n">
         <v>0.4433761691805321</v>
       </c>
+      <c r="K5" t="n">
+        <v>0.4618912589569071</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -623,6 +638,9 @@
       </c>
       <c r="J6" t="n">
         <v>-0.1013444195333953</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-0.0935762223758006</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_5.xlsx
+++ b/predicted_factors_matrix_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,6 +467,9 @@
       <c r="K1" s="1" t="n">
         <v>10</v>
       </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -502,6 +505,9 @@
       <c r="K2" t="n">
         <v>-2.102317016039211</v>
       </c>
+      <c r="L2" t="n">
+        <v>-1.864447227437105</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -537,6 +543,9 @@
       <c r="K3" t="n">
         <v>-0.6813052390739924</v>
       </c>
+      <c r="L3" t="n">
+        <v>-0.6186990797677809</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -572,6 +581,9 @@
       <c r="K4" t="n">
         <v>0.1364101945376108</v>
       </c>
+      <c r="L4" t="n">
+        <v>0.1229217569727152</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -607,6 +619,9 @@
       <c r="K5" t="n">
         <v>0.4618912589569071</v>
       </c>
+      <c r="L5" t="n">
+        <v>0.4673917545581842</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -641,6 +656,9 @@
       </c>
       <c r="K6" t="n">
         <v>-0.0935762223758006</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-0.08587168911778202</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_5.xlsx
+++ b/predicted_factors_matrix_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,6 +470,9 @@
       <c r="L1" s="1" t="n">
         <v>11</v>
       </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -508,6 +511,9 @@
       <c r="L2" t="n">
         <v>-1.864447227437105</v>
       </c>
+      <c r="M2" t="n">
+        <v>-1.648925276138828</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -546,6 +552,9 @@
       <c r="L3" t="n">
         <v>-0.6186990797677809</v>
       </c>
+      <c r="M3" t="n">
+        <v>-0.560069339977245</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -584,6 +593,9 @@
       <c r="L4" t="n">
         <v>0.1229217569727152</v>
       </c>
+      <c r="M4" t="n">
+        <v>0.105416032331058</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -622,6 +634,9 @@
       <c r="L5" t="n">
         <v>0.4673917545581842</v>
       </c>
+      <c r="M5" t="n">
+        <v>0.462972364964275</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -659,6 +674,9 @@
       </c>
       <c r="L6" t="n">
         <v>-0.08587168911778202</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-0.07838965250573016</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_5.xlsx
+++ b/predicted_factors_matrix_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,6 +473,9 @@
       <c r="M1" s="1" t="n">
         <v>12</v>
       </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -514,6 +517,9 @@
       <c r="M2" t="n">
         <v>-1.648925276138828</v>
       </c>
+      <c r="N2" t="n">
+        <v>-1.4550008546222</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -555,6 +561,9 @@
       <c r="M3" t="n">
         <v>-0.560069339977245</v>
       </c>
+      <c r="N3" t="n">
+        <v>-0.5057992421402865</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -596,6 +605,9 @@
       <c r="M4" t="n">
         <v>0.105416032331058</v>
       </c>
+      <c r="N4" t="n">
+        <v>0.08483153045460914</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -637,6 +649,9 @@
       <c r="M5" t="n">
         <v>0.462972364964275</v>
       </c>
+      <c r="N5" t="n">
+        <v>0.4511952522648504</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -677,6 +692,9 @@
       </c>
       <c r="M6" t="n">
         <v>-0.07838965250573016</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.07124564618291558</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_5.xlsx
+++ b/predicted_factors_matrix_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,12 @@
       <c r="N1" s="1" t="n">
         <v>13</v>
       </c>
+      <c r="O1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -520,6 +526,12 @@
       <c r="N2" t="n">
         <v>-1.4550008546222</v>
       </c>
+      <c r="O2" t="n">
+        <v>-1.281641432976643</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-1.12762283105276</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -564,6 +576,12 @@
       <c r="N3" t="n">
         <v>-0.5057992421402865</v>
       </c>
+      <c r="O3" t="n">
+        <v>-0.4560821420107516</v>
+      </c>
+      <c r="P3" t="n">
+        <v>-0.4109627019024589</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -608,6 +626,12 @@
       <c r="N4" t="n">
         <v>0.08483153045460914</v>
       </c>
+      <c r="O4" t="n">
+        <v>0.06196656500936742</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.03749380507472993</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -652,6 +676,12 @@
       <c r="N5" t="n">
         <v>0.4511952522648504</v>
       </c>
+      <c r="O5" t="n">
+        <v>0.4341605616485296</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.4135709484694772</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -695,6 +725,12 @@
       </c>
       <c r="N6" t="n">
         <v>-0.07124564618291558</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-0.06451975945486933</v>
+      </c>
+      <c r="P6" t="n">
+        <v>-0.05826341342551093</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_5.xlsx
+++ b/predicted_factors_matrix_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,6 +482,9 @@
       <c r="P1" s="1" t="n">
         <v>15</v>
       </c>
+      <c r="Q1" s="1" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -532,6 +535,9 @@
       <c r="P2" t="n">
         <v>-1.12762283105276</v>
       </c>
+      <c r="Q2" t="n">
+        <v>-0.9916023666576276</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -582,6 +588,9 @@
       <c r="P3" t="n">
         <v>-0.4109627019024589</v>
       </c>
+      <c r="Q3" t="n">
+        <v>-0.3703718871966817</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -632,6 +641,9 @@
       <c r="P4" t="n">
         <v>0.03749380507472993</v>
       </c>
+      <c r="Q4" t="n">
+        <v>0.01197451357759403</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -682,6 +694,9 @@
       <c r="P5" t="n">
         <v>0.4135709484694772</v>
       </c>
+      <c r="Q5" t="n">
+        <v>0.3907899190417827</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -731,6 +746,9 @@
       </c>
       <c r="P6" t="n">
         <v>-0.05826341342551093</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>-0.05250515895576131</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_5.xlsx
+++ b/predicted_factors_matrix_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,6 +485,9 @@
       <c r="Q1" s="1" t="n">
         <v>16</v>
       </c>
+      <c r="R1" s="1" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -538,6 +541,9 @@
       <c r="Q2" t="n">
         <v>-0.9916023666576276</v>
       </c>
+      <c r="R2" t="n">
+        <v>-0.8721769681047964</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -591,6 +597,9 @@
       <c r="Q3" t="n">
         <v>-0.3703718871966817</v>
       </c>
+      <c r="R3" t="n">
+        <v>-0.3341562577913573</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -644,6 +653,9 @@
       <c r="Q4" t="n">
         <v>0.01197451357759403</v>
       </c>
+      <c r="R4" t="n">
+        <v>-0.01412785196262364</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -697,6 +709,9 @@
       <c r="Q5" t="n">
         <v>0.3907899190417827</v>
       </c>
+      <c r="R5" t="n">
+        <v>0.3668939978835246</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -749,6 +764,9 @@
       </c>
       <c r="Q6" t="n">
         <v>-0.05250515895576131</v>
+      </c>
+      <c r="R6" t="n">
+        <v>-0.04725559501314146</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_5.xlsx
+++ b/predicted_factors_matrix_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,6 +488,9 @@
       <c r="R1" s="1" t="n">
         <v>17</v>
       </c>
+      <c r="S1" s="1" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -544,6 +547,9 @@
       <c r="R2" t="n">
         <v>-0.8721769681047964</v>
       </c>
+      <c r="S2" t="n">
+        <v>-0.7679284879412661</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -600,6 +606,9 @@
       <c r="R3" t="n">
         <v>-0.3341562577913573</v>
       </c>
+      <c r="S3" t="n">
+        <v>-0.3021021252070891</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -656,6 +665,9 @@
       <c r="R4" t="n">
         <v>-0.01412785196262364</v>
       </c>
+      <c r="S4" t="n">
+        <v>-0.04043491312793667</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -712,6 +724,9 @@
       <c r="R5" t="n">
         <v>0.3668939978835246</v>
       </c>
+      <c r="S5" t="n">
+        <v>0.3427188967052343</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -767,6 +782,9 @@
       </c>
       <c r="R6" t="n">
         <v>-0.04725559501314146</v>
+      </c>
+      <c r="S6" t="n">
+        <v>-0.04251150313578722</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_5.xlsx
+++ b/predicted_factors_matrix_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,6 +491,9 @@
       <c r="S1" s="1" t="n">
         <v>18</v>
       </c>
+      <c r="T1" s="1" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -550,6 +553,9 @@
       <c r="S2" t="n">
         <v>-0.7679284879412661</v>
       </c>
+      <c r="T2" t="n">
+        <v>-0.6774582595607519</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -609,6 +615,9 @@
       <c r="S3" t="n">
         <v>-0.3021021252070891</v>
       </c>
+      <c r="T3" t="n">
+        <v>-0.2739551869886941</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -668,6 +677,9 @@
       <c r="S4" t="n">
         <v>-0.04043491312793667</v>
       </c>
+      <c r="T4" t="n">
+        <v>-0.06664166884391896</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -727,6 +739,9 @@
       <c r="S5" t="n">
         <v>0.3427188967052343</v>
       </c>
+      <c r="T5" t="n">
+        <v>0.3188999850249996</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -785,6 +800,9 @@
       </c>
       <c r="S6" t="n">
         <v>-0.04251150313578722</v>
+      </c>
+      <c r="T6" t="n">
+        <v>-0.03825928974218329</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_5.xlsx
+++ b/predicted_factors_matrix_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,6 +494,9 @@
       <c r="T1" s="1" t="n">
         <v>19</v>
       </c>
+      <c r="U1" s="1" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -556,6 +559,9 @@
       <c r="T2" t="n">
         <v>-0.6774582595607519</v>
       </c>
+      <c r="U2" t="n">
+        <v>-0.5994127226968432</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -618,6 +624,9 @@
       <c r="T3" t="n">
         <v>-0.2739551869886941</v>
       </c>
+      <c r="U3" t="n">
+        <v>-0.2494362479969852</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -680,6 +689,9 @@
       <c r="T4" t="n">
         <v>-0.06664166884391896</v>
       </c>
+      <c r="U4" t="n">
+        <v>-0.09250589350316336</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -742,6 +754,9 @@
       <c r="T5" t="n">
         <v>0.3188999850249996</v>
       </c>
+      <c r="U5" t="n">
+        <v>0.2959074494409668</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -803,6 +818,9 @@
       </c>
       <c r="T6" t="n">
         <v>-0.03825928974218329</v>
+      </c>
+      <c r="U6" t="n">
+        <v>-0.03447782298422471</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_5.xlsx
+++ b/predicted_factors_matrix_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U6"/>
+  <dimension ref="A1:V6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,6 +497,9 @@
       <c r="U1" s="1" t="n">
         <v>20</v>
       </c>
+      <c r="V1" s="1" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -562,6 +565,9 @@
       <c r="U2" t="n">
         <v>-0.5994127226968432</v>
       </c>
+      <c r="V2" t="n">
+        <v>-0.5325017236896948</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -627,6 +633,9 @@
       <c r="U3" t="n">
         <v>-0.2494362479969852</v>
       </c>
+      <c r="V3" t="n">
+        <v>-0.2282536074027262</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -692,6 +701,9 @@
       <c r="U4" t="n">
         <v>-0.09250589350316336</v>
       </c>
+      <c r="V4" t="n">
+        <v>-0.1178386512780233</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -757,6 +769,9 @@
       <c r="U5" t="n">
         <v>0.2959074494409668</v>
       </c>
+      <c r="V5" t="n">
+        <v>0.2740765821452004</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -821,6 +836,9 @@
       </c>
       <c r="U6" t="n">
         <v>-0.03447782298422471</v>
+      </c>
+      <c r="V6" t="n">
+        <v>-0.03114074494411533</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_5.xlsx
+++ b/predicted_factors_matrix_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V6"/>
+  <dimension ref="A1:W6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,6 +500,9 @@
       <c r="V1" s="1" t="n">
         <v>21</v>
       </c>
+      <c r="W1" s="1" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -568,6 +571,9 @@
       <c r="V2" t="n">
         <v>-0.5325017236896948</v>
       </c>
+      <c r="W2" t="n">
+        <v>-0.4755108828203679</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -636,6 +642,9 @@
       <c r="V3" t="n">
         <v>-0.2282536074027262</v>
       </c>
+      <c r="W3" t="n">
+        <v>-0.2101126423144999</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -704,6 +713,9 @@
       <c r="V4" t="n">
         <v>-0.1178386512780233</v>
       </c>
+      <c r="W4" t="n">
+        <v>-0.142495899669165</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -772,6 +784,9 @@
       <c r="V5" t="n">
         <v>0.2740765821452004</v>
       </c>
+      <c r="W5" t="n">
+        <v>0.2536336647579239</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -839,6 +854,9 @@
       </c>
       <c r="V6" t="n">
         <v>-0.03114074494411533</v>
+      </c>
+      <c r="W6" t="n">
+        <v>-0.02821833343995109</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_5.xlsx
+++ b/predicted_factors_matrix_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W6"/>
+  <dimension ref="A1:X6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,6 +503,9 @@
       <c r="W1" s="1" t="n">
         <v>22</v>
       </c>
+      <c r="X1" s="1" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -574,6 +577,9 @@
       <c r="W2" t="n">
         <v>-0.4755108828203679</v>
       </c>
+      <c r="X2" t="n">
+        <v>-0.4273092207612955</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -645,6 +651,9 @@
       <c r="W3" t="n">
         <v>-0.2101126423144999</v>
       </c>
+      <c r="X3" t="n">
+        <v>-0.1947230627033997</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -716,6 +725,9 @@
       <c r="W4" t="n">
         <v>-0.142495899669165</v>
       </c>
+      <c r="X4" t="n">
+        <v>-0.1663711259362791</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -787,6 +799,9 @@
       <c r="W5" t="n">
         <v>0.2536336647579239</v>
       </c>
+      <c r="X5" t="n">
+        <v>0.2347179170255519</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -857,6 +872,9 @@
       </c>
       <c r="W6" t="n">
         <v>-0.02821833343995109</v>
+      </c>
+      <c r="X6" t="n">
+        <v>-0.02567898078275858</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_5.xlsx
+++ b/predicted_factors_matrix_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X6"/>
+  <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,6 +506,9 @@
       <c r="X1" s="1" t="n">
         <v>23</v>
       </c>
+      <c r="Y1" s="1" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -580,6 +583,9 @@
       <c r="X2" t="n">
         <v>-0.4273092207612955</v>
       </c>
+      <c r="Y2" t="n">
+        <v>-0.3868530532003512</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -654,6 +660,9 @@
       <c r="X3" t="n">
         <v>-0.1947230627033997</v>
       </c>
+      <c r="Y3" t="n">
+        <v>-0.1818042536854488</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -728,6 +737,9 @@
       <c r="X4" t="n">
         <v>-0.1663711259362791</v>
       </c>
+      <c r="Y4" t="n">
+        <v>-0.1893889419053117</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -802,6 +814,9 @@
       <c r="X5" t="n">
         <v>0.2347179170255519</v>
       </c>
+      <c r="Y5" t="n">
+        <v>0.2173999670988272</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -875,6 +890,9 @@
       </c>
       <c r="X6" t="n">
         <v>-0.02567898078275858</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>-0.0234903497715365</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_5.xlsx
+++ b/predicted_factors_matrix_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y6"/>
+  <dimension ref="A1:Z6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,6 +509,9 @@
       <c r="Y1" s="1" t="n">
         <v>24</v>
       </c>
+      <c r="Z1" s="1" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -586,6 +589,9 @@
       <c r="Y2" t="n">
         <v>-0.3868530532003512</v>
       </c>
+      <c r="Z2" t="n">
+        <v>-0.353186998761712</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -663,6 +669,9 @@
       <c r="Y3" t="n">
         <v>-0.1818042536854488</v>
       </c>
+      <c r="Z3" t="n">
+        <v>-0.1710890642019455</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -740,6 +749,9 @@
       <c r="Y4" t="n">
         <v>-0.1893889419053117</v>
       </c>
+      <c r="Z4" t="n">
+        <v>-0.2114995530942716</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -817,6 +829,9 @@
       <c r="Y5" t="n">
         <v>0.2173999670988272</v>
       </c>
+      <c r="Z5" t="n">
+        <v>0.20169727601405</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -893,6 +908,9 @@
       </c>
       <c r="Y6" t="n">
         <v>-0.0234903497715365</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>-0.02162026024979978</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_5.xlsx
+++ b/predicted_factors_matrix_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z6"/>
+  <dimension ref="A1:AA6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,6 +512,9 @@
       <c r="Z1" s="1" t="n">
         <v>25</v>
       </c>
+      <c r="AA1" s="1" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -592,6 +595,9 @@
       <c r="Z2" t="n">
         <v>-0.353186998761712</v>
       </c>
+      <c r="AA2" t="n">
+        <v>-0.325442800827332</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -672,6 +678,9 @@
       <c r="Z3" t="n">
         <v>-0.1710890642019455</v>
       </c>
+      <c r="AA3" t="n">
+        <v>-0.1623263480120398</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -752,6 +761,9 @@
       <c r="Z4" t="n">
         <v>-0.2114995530942716</v>
       </c>
+      <c r="AA4" t="n">
+        <v>-0.2326740147957463</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -832,6 +844,9 @@
       <c r="Z5" t="n">
         <v>0.20169727601405</v>
       </c>
+      <c r="AA5" t="n">
+        <v>0.1875869177801652</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -911,6 +926,9 @@
       </c>
       <c r="Z6" t="n">
         <v>-0.02162026024979978</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>-0.0200373528630424</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_5.xlsx
+++ b/predicted_factors_matrix_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA6"/>
+  <dimension ref="A1:AB6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,6 +515,9 @@
       <c r="AA1" s="1" t="n">
         <v>26</v>
       </c>
+      <c r="AB1" s="1" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -598,6 +601,9 @@
       <c r="AA2" t="n">
         <v>-0.325442800827332</v>
       </c>
+      <c r="AB2" t="n">
+        <v>-0.302836538164104</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -681,6 +687,9 @@
       <c r="AA3" t="n">
         <v>-0.1623263480120398</v>
       </c>
+      <c r="AB3" t="n">
+        <v>-0.1552825148671557</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -764,6 +773,9 @@
       <c r="AA4" t="n">
         <v>-0.2326740147957463</v>
       </c>
+      <c r="AB4" t="n">
+        <v>-0.2529001887679686</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -847,6 +859,9 @@
       <c r="AA5" t="n">
         <v>0.1875869177801652</v>
       </c>
+      <c r="AB5" t="n">
+        <v>0.1750160813709159</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -929,6 +944,9 @@
       </c>
       <c r="AA6" t="n">
         <v>-0.0200373528630424</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>-0.01871157038901173</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_5.xlsx
+++ b/predicted_factors_matrix_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB6"/>
+  <dimension ref="A1:AC6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,6 +518,9 @@
       <c r="AB1" s="1" t="n">
         <v>27</v>
       </c>
+      <c r="AC1" s="1" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -604,6 +607,9 @@
       <c r="AB2" t="n">
         <v>-0.302836538164104</v>
       </c>
+      <c r="AC2" t="n">
+        <v>-0.2846646911976223</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -690,6 +696,9 @@
       <c r="AB3" t="n">
         <v>-0.1552825148671557</v>
       </c>
+      <c r="AC3" t="n">
+        <v>-0.1497423072088918</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -776,6 +785,9 @@
       <c r="AB4" t="n">
         <v>-0.2529001887679686</v>
       </c>
+      <c r="AC4" t="n">
+        <v>-0.2721793180165072</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -862,6 +874,9 @@
       <c r="AB5" t="n">
         <v>0.1750160813709159</v>
       </c>
+      <c r="AC5" t="n">
+        <v>0.1639106243637642</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -947,6 +962,9 @@
       </c>
       <c r="AB6" t="n">
         <v>-0.01871157038901173</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>-0.01761449125181185</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_5.xlsx
+++ b/predicted_factors_matrix_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC6"/>
+  <dimension ref="A1:AD6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,6 +521,9 @@
       <c r="AC1" s="1" t="n">
         <v>28</v>
       </c>
+      <c r="AD1" s="1" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -610,6 +613,9 @@
       <c r="AC2" t="n">
         <v>-0.2846646911976223</v>
       </c>
+      <c r="AD2" t="n">
+        <v>-0.2702994388252264</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -699,6 +705,9 @@
       <c r="AC3" t="n">
         <v>-0.1497423072088918</v>
       </c>
+      <c r="AD3" t="n">
+        <v>-0.1455089806846587</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -788,6 +797,9 @@
       <c r="AC4" t="n">
         <v>-0.2721793180165072</v>
       </c>
+      <c r="AD4" t="n">
+        <v>-0.2905231426766909</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -877,6 +889,9 @@
       <c r="AC5" t="n">
         <v>0.1639106243637642</v>
       </c>
+      <c r="AD5" t="n">
+        <v>0.1541819716938773</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -965,6 +980,9 @@
       </c>
       <c r="AC6" t="n">
         <v>-0.01761449125181185</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>-0.01671954462496108</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_5.xlsx
+++ b/predicted_factors_matrix_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD6"/>
+  <dimension ref="A1:AE6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,6 +524,9 @@
       <c r="AD1" s="1" t="n">
         <v>29</v>
       </c>
+      <c r="AE1" s="1" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -616,6 +619,9 @@
       <c r="AD2" t="n">
         <v>-0.2702994388252264</v>
       </c>
+      <c r="AE2" t="n">
+        <v>-0.2591834831601371</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -708,6 +714,9 @@
       <c r="AD3" t="n">
         <v>-0.1455089806846587</v>
       </c>
+      <c r="AE3" t="n">
+        <v>-0.1424040348976905</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -800,6 +809,9 @@
       <c r="AD4" t="n">
         <v>-0.2905231426766909</v>
       </c>
+      <c r="AE4" t="n">
+        <v>-0.3079514864297876</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -892,6 +904,9 @@
       <c r="AD5" t="n">
         <v>0.1541819716938773</v>
       </c>
+      <c r="AE5" t="n">
+        <v>0.1457326181820297</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -983,6 +998,9 @@
       </c>
       <c r="AD6" t="n">
         <v>-0.01671954462496108</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>-0.01600213189214323</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_5.xlsx
+++ b/predicted_factors_matrix_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE6"/>
+  <dimension ref="A1:AF6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,6 +527,9 @@
       <c r="AE1" s="1" t="n">
         <v>30</v>
       </c>
+      <c r="AF1" s="1" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -622,6 +625,9 @@
       <c r="AE2" t="n">
         <v>-0.2591834831601371</v>
       </c>
+      <c r="AF2" t="n">
+        <v>-0.2508246348504959</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -717,6 +723,9 @@
       <c r="AE3" t="n">
         <v>-0.1424040348976905</v>
       </c>
+      <c r="AF3" t="n">
+        <v>-0.1402666136468297</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -812,6 +821,9 @@
       <c r="AE4" t="n">
         <v>-0.3079514864297876</v>
       </c>
+      <c r="AF4" t="n">
+        <v>-0.3244902496468647</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -907,6 +919,9 @@
       <c r="AE5" t="n">
         <v>0.1457326181820297</v>
       </c>
+      <c r="AF5" t="n">
+        <v>0.1384604608964591</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1001,6 +1016,9 @@
       </c>
       <c r="AE6" t="n">
         <v>-0.01600213189214323</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>-0.01543967515661972</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_5.xlsx
+++ b/predicted_factors_matrix_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF6"/>
+  <dimension ref="A1:AG6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -530,6 +530,9 @@
       <c r="AF1" s="1" t="n">
         <v>31</v>
       </c>
+      <c r="AG1" s="1" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -628,6 +631,9 @@
       <c r="AF2" t="n">
         <v>-0.2508246348504959</v>
       </c>
+      <c r="AG2" t="n">
+        <v>-0.2447903379833028</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -726,6 +732,9 @@
       <c r="AF3" t="n">
         <v>-0.1402666136468297</v>
       </c>
+      <c r="AG3" t="n">
+        <v>-0.1389526709561537</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -824,6 +833,9 @@
       <c r="AF4" t="n">
         <v>-0.3244902496468647</v>
       </c>
+      <c r="AG4" t="n">
+        <v>-0.3401697521823506</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -922,6 +934,9 @@
       <c r="AF5" t="n">
         <v>0.1384604608964591</v>
       </c>
+      <c r="AG5" t="n">
+        <v>0.1322621574429872</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1019,6 +1034,9 @@
       </c>
       <c r="AF6" t="n">
         <v>-0.01543967515661972</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>-0.01501160994266312</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_5.xlsx
+++ b/predicted_factors_matrix_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG6"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -533,6 +533,9 @@
       <c r="AG1" s="1" t="n">
         <v>32</v>
       </c>
+      <c r="AH1" s="1" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -634,6 +637,9 @@
       <c r="AG2" t="n">
         <v>-0.2447903379833028</v>
       </c>
+      <c r="AH2" t="n">
+        <v>-0.2407022695307103</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -735,6 +741,9 @@
       <c r="AG3" t="n">
         <v>-0.1389526709561537</v>
       </c>
+      <c r="AH3" t="n">
+        <v>-0.1383339799296323</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -836,6 +845,9 @@
       <c r="AG4" t="n">
         <v>-0.3401697521823506</v>
       </c>
+      <c r="AH4" t="n">
+        <v>-0.3550233751985621</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -937,6 +949,9 @@
       <c r="AG5" t="n">
         <v>0.1322621574429872</v>
       </c>
+      <c r="AH5" t="n">
+        <v>0.127035679132499</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1037,6 +1052,9 @@
       </c>
       <c r="AG6" t="n">
         <v>-0.01501160994266312</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>-0.0146993361752792</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_5.xlsx
+++ b/predicted_factors_matrix_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AI6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -536,6 +536,9 @@
       <c r="AH1" s="1" t="n">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -640,6 +643,9 @@
       <c r="AH2" t="n">
         <v>-0.2407022695307103</v>
       </c>
+      <c r="AI2" t="n">
+        <v>-0.2382311124254712</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -744,6 +750,9 @@
       <c r="AH3" t="n">
         <v>-0.1383339799296323</v>
       </c>
+      <c r="AI3" t="n">
+        <v>-0.1382970454005093</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -848,6 +857,9 @@
       <c r="AH4" t="n">
         <v>-0.3550233751985621</v>
       </c>
+      <c r="AI4" t="n">
+        <v>-0.3690864574529827</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -952,6 +964,9 @@
       <c r="AH5" t="n">
         <v>0.127035679132499</v>
       </c>
+      <c r="AI5" t="n">
+        <v>0.1226822036738795</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1055,6 +1070,9 @@
       </c>
       <c r="AH6" t="n">
         <v>-0.0146993361752792</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>-0.01448613891250647</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_5.xlsx
+++ b/predicted_factors_matrix_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI6"/>
+  <dimension ref="A1:AJ6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,6 +539,9 @@
       <c r="AI1" s="1" t="n">
         <v>34</v>
       </c>
+      <c r="AJ1" s="1" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -646,6 +649,9 @@
       <c r="AI2" t="n">
         <v>-0.2382311124254712</v>
       </c>
+      <c r="AJ2" t="n">
+        <v>-0.237091572409778</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -753,6 +759,9 @@
       <c r="AI3" t="n">
         <v>-0.1382970454005093</v>
       </c>
+      <c r="AJ3" t="n">
+        <v>-0.1387419680288478</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -860,6 +869,9 @@
       <c r="AI4" t="n">
         <v>-0.3690864574529827</v>
       </c>
+      <c r="AJ4" t="n">
+        <v>-0.3823954070482809</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -967,6 +979,9 @@
       <c r="AI5" t="n">
         <v>0.1226822036738795</v>
       </c>
+      <c r="AJ5" t="n">
+        <v>0.1191074704975516</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1073,6 +1088,9 @@
       </c>
       <c r="AI6" t="n">
         <v>-0.01448613891250647</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>-0.01435708808999374</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_5.xlsx
+++ b/predicted_factors_matrix_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ6"/>
+  <dimension ref="A1:AK6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -542,6 +542,9 @@
       <c r="AJ1" s="1" t="n">
         <v>35</v>
       </c>
+      <c r="AK1" s="1" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -652,6 +655,9 @@
       <c r="AJ2" t="n">
         <v>-0.237091572409778</v>
       </c>
+      <c r="AK2" t="n">
+        <v>-0.2370376856804882</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -762,6 +768,9 @@
       <c r="AJ3" t="n">
         <v>-0.1387419680288478</v>
       </c>
+      <c r="AK3" t="n">
+        <v>-0.1395812965289496</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -872,6 +881,9 @@
       <c r="AJ4" t="n">
         <v>-0.3823954070482809</v>
       </c>
+      <c r="AK4" t="n">
+        <v>-0.3949869947019284</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -982,6 +994,9 @@
       <c r="AJ5" t="n">
         <v>0.1191074704975516</v>
       </c>
+      <c r="AK5" t="n">
+        <v>0.1162227028744999</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1091,6 +1106,9 @@
       </c>
       <c r="AJ6" t="n">
         <v>-0.01435708808999374</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>-0.01429892467339771</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_5.xlsx
+++ b/predicted_factors_matrix_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK6"/>
+  <dimension ref="A1:AL6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -545,6 +545,9 @@
       <c r="AK1" s="1" t="n">
         <v>36</v>
       </c>
+      <c r="AL1" s="1" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -658,6 +661,9 @@
       <c r="AK2" t="n">
         <v>-0.2370376856804882</v>
       </c>
+      <c r="AL2" t="n">
+        <v>-0.2378584460885665</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -771,6 +777,9 @@
       <c r="AK3" t="n">
         <v>-0.1395812965289496</v>
       </c>
+      <c r="AL3" t="n">
+        <v>-0.1407388957255757</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -884,6 +893,9 @@
       <c r="AK4" t="n">
         <v>-0.3949869947019284</v>
       </c>
+      <c r="AL4" t="n">
+        <v>-0.4068977991379074</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -997,6 +1009,9 @@
       <c r="AK5" t="n">
         <v>0.1162227028744999</v>
       </c>
+      <c r="AL5" t="n">
+        <v>0.1139451844629508</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1109,6 +1124,9 @@
       </c>
       <c r="AK6" t="n">
         <v>-0.01429892467339771</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>-0.01429993905560113</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_5.xlsx
+++ b/predicted_factors_matrix_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL6"/>
+  <dimension ref="A1:AM6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -548,6 +548,9 @@
       <c r="AL1" s="1" t="n">
         <v>37</v>
       </c>
+      <c r="AM1" s="1" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -664,6 +667,9 @@
       <c r="AL2" t="n">
         <v>-0.2378584460885665</v>
       </c>
+      <c r="AM2" t="n">
+        <v>-0.2393737664080624</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -780,6 +786,9 @@
       <c r="AL3" t="n">
         <v>-0.1407388957255757</v>
       </c>
+      <c r="AM3" t="n">
+        <v>-0.1421488508320631</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -896,6 +905,9 @@
       <c r="AL4" t="n">
         <v>-0.4068977991379074</v>
       </c>
+      <c r="AM4" t="n">
+        <v>-0.4181637792559992</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1012,6 +1024,9 @@
       <c r="AL5" t="n">
         <v>0.1139451844629508</v>
       </c>
+      <c r="AM5" t="n">
+        <v>0.1121985635753222</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1127,6 +1142,9 @@
       </c>
       <c r="AL6" t="n">
         <v>-0.01429993905560113</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>-0.0143498462414437</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_5.xlsx
+++ b/predicted_factors_matrix_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM6"/>
+  <dimension ref="A1:AN6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -551,6 +551,9 @@
       <c r="AM1" s="1" t="n">
         <v>38</v>
       </c>
+      <c r="AN1" s="1" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -670,6 +673,9 @@
       <c r="AM2" t="n">
         <v>-0.2393737664080624</v>
       </c>
+      <c r="AN2" t="n">
+        <v>-0.241430777257144</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -789,6 +795,9 @@
       <c r="AM3" t="n">
         <v>-0.1421488508320631</v>
       </c>
+      <c r="AN3" t="n">
+        <v>-0.1437544224466847</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -908,6 +917,9 @@
       <c r="AM4" t="n">
         <v>-0.4181637792559992</v>
       </c>
+      <c r="AN4" t="n">
+        <v>-0.4288199513234107</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1027,6 +1039,9 @@
       <c r="AM5" t="n">
         <v>0.1121985635753222</v>
       </c>
+      <c r="AN5" t="n">
+        <v>0.1109129460926817</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1145,6 +1160,9 @@
       </c>
       <c r="AM6" t="n">
         <v>-0.0143498462414437</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>-0.0144396612950455</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_5.xlsx
+++ b/predicted_factors_matrix_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN6"/>
+  <dimension ref="A1:AO6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -554,6 +554,9 @@
       <c r="AN1" s="1" t="n">
         <v>39</v>
       </c>
+      <c r="AO1" s="1" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -676,6 +679,9 @@
       <c r="AN2" t="n">
         <v>-0.241430777257144</v>
       </c>
+      <c r="AO2" t="n">
+        <v>-0.2439004590244875</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -798,6 +804,9 @@
       <c r="AN3" t="n">
         <v>-0.1437544224466847</v>
       </c>
+      <c r="AO3" t="n">
+        <v>-0.1455070620438871</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -920,6 +929,9 @@
       <c r="AN4" t="n">
         <v>-0.4288199513234107</v>
       </c>
+      <c r="AO4" t="n">
+        <v>-0.4389001525943205</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1042,6 +1054,9 @@
       <c r="AN5" t="n">
         <v>0.1109129460926817</v>
       </c>
+      <c r="AO5" t="n">
+        <v>0.1100248273482292</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1163,6 +1178,9 @@
       </c>
       <c r="AN6" t="n">
         <v>-0.0144396612950455</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>-0.01456157765035812</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_5.xlsx
+++ b/predicted_factors_matrix_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO6"/>
+  <dimension ref="A1:AP6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,6 +557,9 @@
       <c r="AO1" s="1" t="n">
         <v>40</v>
       </c>
+      <c r="AP1" s="1" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -682,6 +685,9 @@
       <c r="AO2" t="n">
         <v>-0.2439004590244875</v>
       </c>
+      <c r="AP2" t="n">
+        <v>-0.2466745961176095</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -807,6 +813,9 @@
       <c r="AO3" t="n">
         <v>-0.1455070620438871</v>
       </c>
+      <c r="AP3" t="n">
+        <v>-0.1473654939973643</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -932,6 +941,9 @@
       <c r="AO4" t="n">
         <v>-0.4389001525943205</v>
       </c>
+      <c r="AP4" t="n">
+        <v>-0.4484368755323409</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1057,6 +1069,9 @@
       <c r="AO5" t="n">
         <v>0.1100248273482292</v>
       </c>
+      <c r="AP5" t="n">
+        <v>0.1094769042516005</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1181,6 +1196,9 @@
       </c>
       <c r="AO6" t="n">
         <v>-0.01456157765035812</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>-0.01470885017475824</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_5.xlsx
+++ b/predicted_factors_matrix_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP6"/>
+  <dimension ref="A1:AQ6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,6 +560,9 @@
       <c r="AP1" s="1" t="n">
         <v>41</v>
       </c>
+      <c r="AQ1" s="1" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -688,6 +691,9 @@
       <c r="AP2" t="n">
         <v>-0.2466745961176095</v>
       </c>
+      <c r="AQ2" t="n">
+        <v>-0.2496630385769115</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -816,6 +822,9 @@
       <c r="AP3" t="n">
         <v>-0.1473654939973643</v>
       </c>
+      <c r="AQ3" t="n">
+        <v>-0.1492948672435805</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -944,6 +953,9 @@
       <c r="AP4" t="n">
         <v>-0.4484368755323409</v>
       </c>
+      <c r="AQ4" t="n">
+        <v>-0.4574611592266549</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1072,6 +1084,9 @@
       <c r="AP5" t="n">
         <v>0.1094769042516005</v>
       </c>
+      <c r="AQ5" t="n">
+        <v>0.1092178012423666</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1199,6 +1214,9 @@
       </c>
       <c r="AP6" t="n">
         <v>-0.01470885017475824</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>-0.01487568430249571</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_5.xlsx
+++ b/predicted_factors_matrix_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ6"/>
+  <dimension ref="A1:AR6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -563,6 +563,9 @@
       <c r="AQ1" s="1" t="n">
         <v>42</v>
       </c>
+      <c r="AR1" s="1" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -694,6 +697,9 @@
       <c r="AQ2" t="n">
         <v>-0.2496630385769115</v>
       </c>
+      <c r="AR2" t="n">
+        <v>-0.2527912532324437</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -825,6 +831,9 @@
       <c r="AQ3" t="n">
         <v>-0.1492948672435805</v>
       </c>
+      <c r="AR3" t="n">
+        <v>-0.1512659774348127</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -956,6 +965,9 @@
       <c r="AQ4" t="n">
         <v>-0.4574611592266549</v>
       </c>
+      <c r="AR4" t="n">
+        <v>-0.4660025266910051</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1087,6 +1099,9 @@
       <c r="AQ5" t="n">
         <v>0.1092178012423666</v>
       </c>
+      <c r="AR5" t="n">
+        <v>0.1092017371703798</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1217,6 +1232,9 @@
       </c>
       <c r="AQ6" t="n">
         <v>-0.01487568430249571</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>-0.01505713209726499</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_5.xlsx
+++ b/predicted_factors_matrix_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR6"/>
+  <dimension ref="A1:AS6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -566,6 +566,9 @@
       <c r="AR1" s="1" t="n">
         <v>43</v>
       </c>
+      <c r="AS1" s="1" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -700,6 +703,9 @@
       <c r="AR2" t="n">
         <v>-0.2527912532324437</v>
       </c>
+      <c r="AS2" t="n">
+        <v>-0.2559981448235618</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -834,6 +840,9 @@
       <c r="AR3" t="n">
         <v>-0.1512659774348127</v>
       </c>
+      <c r="AS3" t="n">
+        <v>-0.1532545587191891</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -968,6 +977,9 @@
       <c r="AR4" t="n">
         <v>-0.4660025266910051</v>
       </c>
+      <c r="AS4" t="n">
+        <v>-0.4740889585502871</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1102,6 +1114,9 @@
       <c r="AR5" t="n">
         <v>0.1092017371703798</v>
       </c>
+      <c r="AS5" t="n">
+        <v>0.1093881547453019</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1235,6 +1250,9 @@
       </c>
       <c r="AR6" t="n">
         <v>-0.01505713209726499</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>-0.01524899574181113</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_5.xlsx
+++ b/predicted_factors_matrix_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS6"/>
+  <dimension ref="A1:AT6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -569,6 +569,9 @@
       <c r="AS1" s="1" t="n">
         <v>44</v>
       </c>
+      <c r="AT1" s="1" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -706,6 +709,9 @@
       <c r="AS2" t="n">
         <v>-0.2559981448235618</v>
       </c>
+      <c r="AT2" t="n">
+        <v>-0.2592341266097585</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -843,6 +849,9 @@
       <c r="AS3" t="n">
         <v>-0.1532545587191891</v>
       </c>
+      <c r="AT3" t="n">
+        <v>-0.1552406430199245</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -980,6 +989,9 @@
       <c r="AS4" t="n">
         <v>-0.4740889585502871</v>
       </c>
+      <c r="AT4" t="n">
+        <v>-0.4817468951843932</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1117,6 +1129,9 @@
       <c r="AS5" t="n">
         <v>0.1093881547453019</v>
       </c>
+      <c r="AT5" t="n">
+        <v>0.109741329636884</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1253,6 +1268,9 @@
       </c>
       <c r="AS6" t="n">
         <v>-0.01524899574181113</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>-0.0154477386708966</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_5.xlsx
+++ b/predicted_factors_matrix_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AT6"/>
+  <dimension ref="A1:AU6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,6 +572,9 @@
       <c r="AT1" s="1" t="n">
         <v>45</v>
       </c>
+      <c r="AU1" s="1" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -712,6 +715,9 @@
       <c r="AT2" t="n">
         <v>-0.2592341266097585</v>
       </c>
+      <c r="AU2" t="n">
+        <v>-0.2624594197737551</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -852,6 +858,9 @@
       <c r="AT3" t="n">
         <v>-0.1552406430199245</v>
       </c>
+      <c r="AU3" t="n">
+        <v>-0.1572079837817331</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -992,6 +1001,9 @@
       <c r="AT4" t="n">
         <v>-0.4817468951843932</v>
       </c>
+      <c r="AU4" t="n">
+        <v>-0.489001260742438</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1132,6 +1144,9 @@
       <c r="AT5" t="n">
         <v>0.109741329636884</v>
       </c>
+      <c r="AU5" t="n">
+        <v>0.1102299725160295</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1271,6 +1286,9 @@
       </c>
       <c r="AT6" t="n">
         <v>-0.0154477386708966</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>-0.01565040434802881</v>
       </c>
     </row>
   </sheetData>
